--- a/Documents/Requirements.xlsx
+++ b/Documents/Requirements.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b62dc53bd2404d9b/BKLearning/Git/Github Desktop/Embedded-System-Project/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_9C5CF2A16F6F5FB2EE5CEA88ED0E67CD9C8033AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59AD3DC-792E-46EB-8EA3-6553325B9217}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Requirements"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>1</t>
   </si>
@@ -209,14 +215,31 @@
   </si>
   <si>
     <t>The speaker volume shall be &gt; 70 dB.</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Bluetooth - App</t>
+  </si>
+  <si>
+    <t>Battery monitor: ADC in (TNam)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,9 +268,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -278,53 +315,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,10 +379,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -376,71 +420,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,7 +512,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -491,11 +535,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -504,13 +548,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -520,7 +564,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -529,7 +573,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -538,7 +582,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,10 +590,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -614,21 +658,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="84.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -644,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -652,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -660,19 +708,22 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="C6" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -680,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -688,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -696,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -704,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -712,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -720,7 +771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -728,21 +779,24 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="C15" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -750,7 +804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -758,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -766,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -774,7 +828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -782,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
@@ -790,7 +844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -798,7 +852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -806,19 +860,27 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="B24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="C25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
@@ -826,7 +888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>47</v>
       </c>
@@ -834,7 +896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>49</v>
       </c>
@@ -842,7 +904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -850,19 +912,21 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="C31" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
@@ -870,7 +934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -878,15 +942,18 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="C34" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>61</v>
       </c>
@@ -894,12 +961,20 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
